--- a/level.xlsx
+++ b/level.xlsx
@@ -9,33 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>https://i.stack.imgur.com/5z1KX.png</t>
+  </si>
+  <si>
+    <t>http://www.gameart2d.com/uploads/3/0/9/1/30917885/8246060_orig.jpg</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>T</t>
+    <t>http://opengameart.org/sites/default/files/styles/watermarked/public/Tiles_64x64.png</t>
   </si>
   <si>
-    <t>Wall</t>
+    <t>T</t>
   </si>
   <si>
     <t>B</t>
@@ -46,21 +50,12 @@
   <si>
     <t>Empty</t>
   </si>
-  <si>
-    <t>https://i.stack.imgur.com/5z1KX.png</t>
-  </si>
-  <si>
-    <t>http://www.gameart2d.com/uploads/3/0/9/1/30917885/8246060_orig.jpg</t>
-  </si>
-  <si>
-    <t>http://opengameart.org/sites/default/files/styles/watermarked/public/Tiles_64x64.png</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +64,333 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,15 +398,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % – Zvýraznění1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Chybně" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,14 +875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="V22" sqref="V21:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="103" width="3.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -393,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -408,18 +906,18 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>126</v>
@@ -434,18 +932,18 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -460,18 +958,18 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>145</v>
@@ -486,12 +984,12 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -506,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
@@ -724,6 +1222,12 @@
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
       <c r="S15" t="s">
         <v>0</v>
       </c>
@@ -859,8 +1363,14 @@
       <c r="N21" t="s">
         <v>0</v>
       </c>
+      <c r="V21" t="s">
+        <v>7</v>
+      </c>
       <c r="X21" t="s">
         <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>7</v>
       </c>
       <c r="AC21" t="s">
         <v>0</v>
@@ -933,6 +1443,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>